--- a/va_facility_data_2025-02-20/Northport VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Northport%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Northport VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Northport%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rab75a241dd194101b6405e78e90ac160"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R01bc83a19eaf432fa966e4c3f3be190d"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rca3683a015b8447aa0beec146e16584c"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R18cb107d337e45c9914cdb0c19b20435"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rbccacba0d8694ae3aea289bdcb571f9f"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rff4083ecc06b4171b9c57d84f6d0af9b"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Re9ef6c6992414da98bd476d27f6fbd3e"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Re8fa2675574741ee9afd4112bf2d5437"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rce857c86e3e84a4da1e4047829e2ab9a"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R6db4f653d039490797394b11f7f8b62c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rd6da8e74574f49619eb7a6e2549ea5a8"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R4e2c9a0b00ee4623bd5cf705548e2ec7"/>
   </x:sheets>
 </x:workbook>
 </file>
